--- a/5- Evaluation & Choix/Dossier/Evaluation SSPEC ROI.xlsx
+++ b/5- Evaluation & Choix/Dossier/Evaluation SSPEC ROI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slifer\Documents\GitHub\Projects\PLD-SPIE\5- Evaluation &amp; Choix\Standard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slifer\Documents\GitHub\Projects\PLD-SPIE\5- Evaluation &amp; Choix\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1188" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="1764" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
     <sheet name="Récap" sheetId="1" r:id="rId1"/>
@@ -1135,6 +1135,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1170,14 +1178,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1322,7 +1322,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1401,9 +1400,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1422,9 +1419,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1443,9 +1438,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1464,9 +1457,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1485,9 +1476,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1529,7 +1518,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1677,9 +1665,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1698,9 +1684,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1719,9 +1703,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1740,9 +1722,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1761,9 +1741,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1805,7 +1783,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1873,37 +1850,37 @@
                 <c:formatCode>" "* #\ ##0.00" € ";"-"* #\ ##0.00" € ";" "* "-"??" € "</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1278600</c:v>
+                  <c:v>1289600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1599200</c:v>
+                  <c:v>1610200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1919800</c:v>
+                  <c:v>1930800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2240400</c:v>
+                  <c:v>2251400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2561000</c:v>
+                  <c:v>2572000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2881600</c:v>
+                  <c:v>2892600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3202200</c:v>
+                  <c:v>3213200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3522800</c:v>
+                  <c:v>3533800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3843400</c:v>
+                  <c:v>3854400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4164000</c:v>
+                  <c:v>4175000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4484600</c:v>
+                  <c:v>4495600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,11 +2012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="221168944"/>
-        <c:axId val="221170064"/>
+        <c:axId val="228289840"/>
+        <c:axId val="228290400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221168944"/>
+        <c:axId val="228289840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2048,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2138,7 +2114,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221170064"/>
+        <c:crossAx val="228290400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2146,7 +2122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221170064"/>
+        <c:axId val="228290400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2168,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2253,7 +2228,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221168944"/>
+        <c:crossAx val="228289840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2306,7 +2281,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4210,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4397,7 +4371,7 @@
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="81" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -4420,7 +4394,7 @@
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
@@ -4452,12 +4426,14 @@
       <c r="E17" s="29">
         <v>1</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="30">
+        <v>11000</v>
+      </c>
       <c r="G17" s="32"/>
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="81" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="34" t="s">
@@ -4474,13 +4450,13 @@
         <f t="shared" ref="F18:F23" si="0">D18*E18</f>
         <v>136500</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="88" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="34" t="s">
         <v>24</v>
       </c>
@@ -4495,11 +4471,11 @@
         <f t="shared" si="0"/>
         <v>126750</v>
       </c>
-      <c r="G19" s="85"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="34" t="s">
         <v>25</v>
       </c>
@@ -4514,11 +4490,11 @@
         <f t="shared" si="0"/>
         <v>107250</v>
       </c>
-      <c r="G20" s="85"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="34" t="s">
         <v>26</v>
       </c>
@@ -4533,11 +4509,11 @@
         <f t="shared" si="0"/>
         <v>97500</v>
       </c>
-      <c r="G21" s="86"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="81" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="34" t="s">
@@ -4560,7 +4536,7 @@
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="34" t="s">
         <v>30</v>
       </c>
@@ -4575,7 +4551,7 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G23" s="86"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -4591,7 +4567,7 @@
       <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="81" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -4614,7 +4590,7 @@
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="34" t="s">
         <v>35</v>
       </c>
@@ -4672,7 +4648,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="81" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -4695,7 +4671,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="34" t="s">
         <v>43</v>
       </c>
@@ -4789,7 +4765,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="81" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="34" t="s">
@@ -4812,7 +4788,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="34" t="s">
         <v>54</v>
       </c>
@@ -4831,7 +4807,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="86" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="34" t="s">
@@ -4855,7 +4831,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="27" t="s">
         <v>58</v>
       </c>
@@ -4911,63 +4887,63 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="93"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="44"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="B44" s="90" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="93"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="23"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="B45" s="90" t="s">
+      <c r="A45" s="84"/>
+      <c r="B45" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="93"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="80"/>
       <c r="F45" s="23"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
-      <c r="B46" s="90" t="s">
+      <c r="A46" s="84"/>
+      <c r="B46" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="93"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="80"/>
       <c r="F46" s="45"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="B47" s="90" t="s">
+      <c r="A47" s="84"/>
+      <c r="B47" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="93"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="30">
         <v>75000</v>
       </c>
@@ -4977,13 +4953,13 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="B48" s="90" t="s">
+      <c r="A48" s="84"/>
+      <c r="B48" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="93"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="30">
         <v>75000</v>
       </c>
@@ -4993,19 +4969,19 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="90" t="s">
+      <c r="A49" s="84"/>
+      <c r="B49" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="46"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="95" t="s">
         <v>70</v>
       </c>
@@ -5155,21 +5131,21 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A38:A39"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G22:G23"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B48:E48"/>
@@ -5383,7 +5359,7 @@
       </c>
       <c r="O7" s="68">
         <f>H18+L18</f>
-        <v>1278600</v>
+        <v>1289600</v>
       </c>
       <c r="P7" s="68">
         <f>L18</f>
@@ -5405,7 +5381,7 @@
       </c>
       <c r="H8" s="68">
         <f>H18+L18</f>
-        <v>1278600</v>
+        <v>1289600</v>
       </c>
       <c r="I8" s="68">
         <f>350000*7%</f>
@@ -5423,7 +5399,7 @@
       </c>
       <c r="O8" s="70">
         <f>O7+L18</f>
-        <v>1599200</v>
+        <v>1610200</v>
       </c>
       <c r="P8" s="70">
         <f>L18</f>
@@ -5464,7 +5440,7 @@
       </c>
       <c r="O9" s="72">
         <f>O8+L18</f>
-        <v>1919800</v>
+        <v>1930800</v>
       </c>
       <c r="P9" s="72">
         <f>L18</f>
@@ -5504,7 +5480,7 @@
       </c>
       <c r="O10" s="70">
         <f>O9+L18</f>
-        <v>2240400</v>
+        <v>2251400</v>
       </c>
       <c r="P10" s="70">
         <f>L18</f>
@@ -5544,7 +5520,7 @@
       </c>
       <c r="O11" s="72">
         <f>O10+L18</f>
-        <v>2561000</v>
+        <v>2572000</v>
       </c>
       <c r="P11" s="72">
         <f>L18</f>
@@ -5584,7 +5560,7 @@
       </c>
       <c r="O12" s="70">
         <f>O11+L18</f>
-        <v>2881600</v>
+        <v>2892600</v>
       </c>
       <c r="P12" s="70">
         <f>L18</f>
@@ -5614,7 +5590,7 @@
       </c>
       <c r="O13" s="72">
         <f>O12+L18</f>
-        <v>3202200</v>
+        <v>3213200</v>
       </c>
       <c r="P13" s="72">
         <f>L18</f>
@@ -5644,7 +5620,7 @@
       </c>
       <c r="O14" s="70">
         <f>O13+L18</f>
-        <v>3522800</v>
+        <v>3533800</v>
       </c>
       <c r="P14" s="70">
         <f>L18</f>
@@ -5674,7 +5650,7 @@
       </c>
       <c r="O15" s="72">
         <f>O14+L18</f>
-        <v>3843400</v>
+        <v>3854400</v>
       </c>
       <c r="P15" s="72">
         <f>P14*5%+P14</f>
@@ -5704,7 +5680,7 @@
       </c>
       <c r="O16" s="70">
         <f>O15+L18</f>
-        <v>4164000</v>
+        <v>4175000</v>
       </c>
       <c r="P16" s="70">
         <f>P15*5%+P15</f>
@@ -5734,7 +5710,7 @@
       </c>
       <c r="O17" s="72">
         <f>O16+L18</f>
-        <v>4484600</v>
+        <v>4495600</v>
       </c>
       <c r="P17" s="72">
         <f>P16*5%+P16</f>
@@ -5754,7 +5730,7 @@
       </c>
       <c r="H18" s="74">
         <f>SUM(Récap!F15:F27)</f>
-        <v>958000</v>
+        <v>969000</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="15" t="s">
